--- a/12_db_design/dbs.xlsx
+++ b/12_db_design/dbs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>table products</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>employee</t>
   </si>
 </sst>
 </file>
@@ -270,9 +267,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,6 +280,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,13 +604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -624,101 +621,101 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -726,42 +723,42 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -769,34 +766,34 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -810,72 +807,72 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>4</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1008,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
